--- a/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/Produits_attractif.xlsx
+++ b/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/Produits_attractif.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Nom Produit</t>
   </si>
@@ -27,6 +27,75 @@
   </si>
   <si>
     <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Énergétique</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>TestFournisseur</t>
+  </si>
+  <si>
+    <t>red bull</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>Energisante Import Export</t>
+  </si>
+  <si>
+    <t>Baume musculaire</t>
+  </si>
+  <si>
+    <t>Soins Sportive</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>Fournisseur généraliste en Tunisie</t>
+  </si>
+  <si>
+    <t>Protéine Whey</t>
+  </si>
+  <si>
+    <t>Musculation</t>
+  </si>
+  <si>
+    <t>Motive8</t>
+  </si>
+  <si>
+    <t>Mélange de protéines végétale</t>
+  </si>
+  <si>
+    <t>FXX</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>Protéine de riz</t>
+  </si>
+  <si>
+    <t>proteine</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>xtend energy</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>Aecor.tn - Nutrition Sportive &amp; Home Fitness en Tunisie</t>
   </si>
 </sst>
 </file>
@@ -129,17 +198,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.65234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.17578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.87109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.96484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="50.63671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -159,6 +228,176 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>99.91999816894531</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>87.0</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/Produits_attractif.xlsx
+++ b/finaleserviceabon-main/finaleserviceabon-main/pidev3A32_v1/Produits_attractif.xlsx
@@ -29,7 +29,7 @@
     <t>Fournisseur</t>
   </si>
   <si>
-    <t>GG</t>
+    <t>TestProduit</t>
   </si>
   <si>
     <t>Énergétique</t>
@@ -253,7 +253,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>9.0</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>10</v>
